--- a/Tables/Excel/Tbl_Character.xlsx
+++ b/Tables/Excel/Tbl_Character.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15705" windowHeight="12180"/>
+    <workbookView windowWidth="23580" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,90 +16,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>ID</t>
   </si>
   <si>
+    <t>AssetBundleName</t>
+  </si>
+  <si>
+    <t>AssetNamePath</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>MoveSpeed</t>
-  </si>
-  <si>
-    <t>Hp</t>
-  </si>
-  <si>
-    <t>Attack</t>
-  </si>
-  <si>
-    <t>Defence</t>
-  </si>
-  <si>
     <t>Describe</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
     <t>编号ID</t>
   </si>
   <si>
+    <t>AB包名</t>
+  </si>
+  <si>
+    <t>asset资源名路径</t>
+  </si>
+  <si>
     <t>名称</t>
   </si>
   <si>
-    <t>路径</t>
-  </si>
-  <si>
-    <t>移动速度</t>
-  </si>
-  <si>
-    <t>血量</t>
-  </si>
-  <si>
-    <t>攻击</t>
-  </si>
-  <si>
-    <t>防御</t>
-  </si>
-  <si>
     <t>角色描述</t>
   </si>
   <si>
-    <t>name_1001</t>
-  </si>
-  <si>
-    <t>path_1001</t>
-  </si>
-  <si>
-    <t>角色name_1001，恒撒大陆的精灵战士</t>
-  </si>
-  <si>
-    <t>name_1002</t>
-  </si>
-  <si>
-    <t>path_1002</t>
-  </si>
-  <si>
-    <t>角色name_1002，恒撒大陆的眼镜蛇部战士</t>
-  </si>
-  <si>
-    <t>name_1003</t>
-  </si>
-  <si>
-    <t>path_1003</t>
-  </si>
-  <si>
-    <t>角色name_1003，恒撒大陆的暗部战士</t>
+    <t>role_erika</t>
+  </si>
+  <si>
+    <t>Characters/Erika/Erika.prefab</t>
+  </si>
+  <si>
+    <t>Erika</t>
+  </si>
+  <si>
+    <t>角色Erika，恒撒大陆的精灵战士</t>
+  </si>
+  <si>
+    <t>role_arissa</t>
+  </si>
+  <si>
+    <t>Characters/Arissa/Arissa.prefab</t>
+  </si>
+  <si>
+    <t>Arissa</t>
+  </si>
+  <si>
+    <t>角色Arissa，恒撒大陆的眼镜蛇部战士</t>
   </si>
 </sst>
 </file>
@@ -715,12 +688,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1070,174 +1049,103 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="13.125" customWidth="1"/>
-    <col min="3" max="3" width="12.625" customWidth="1"/>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
-    <col min="8" max="8" width="40" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="3" width="39.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
+    <col min="5" max="5" width="37.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2">
+        <v>1001</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" s="2">
+        <v>1002</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>1001</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="E4" s="1">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>1002</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="E5" s="1">
-        <v>20</v>
-      </c>
-      <c r="F5" s="1">
-        <v>2</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>1003</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="E6" s="1">
-        <v>30</v>
-      </c>
-      <c r="F6" s="1">
-        <v>3</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
